--- a/biology/Botanique/Piment_jalapeño/Piment_jalapeño.xlsx
+++ b/biology/Botanique/Piment_jalapeño/Piment_jalapeño.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Piment_jalape%C3%B1o</t>
+          <t>Piment_jalapeño</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le piment jalapeño, ou simplement le jalapeño,  est une variété mexicaine du piment (Capsicum annuum)[1], plante condimentaire de la famille des Solanacées.
+Le piment jalapeño, ou simplement le jalapeño,  est une variété mexicaine du piment (Capsicum annuum), plante condimentaire de la famille des Solanacées.
 Il tire son nom de sa ville d'origine, Xalapa, ville de l'État de Veracruz au Mexique. Sa couleur est verte ou rouge, selon sa maturité. La récolte a lieu environ 70 jours après le semis, et chaque plante donne une trentaine de fruits.
 Le jalapeño mesure entre 5 et 9 cm. Il titre 2 500 à 8 000 sur l'échelle de Scoville, ce qui correspond à une force moyenne.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Piment_jalape%C3%B1o</t>
+          <t>Piment_jalapeño</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Préparations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le jalapeño peut être consommé de diverses façons, parmi lesquelles :
 les chiles toreados : des jalapeños frais grillés à l'huile et parfois recouverts de fromage fondu ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Piment_jalape%C3%B1o</t>
+          <t>Piment_jalapeño</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Bosland, directeur de l'Institut du piment (université de l'État du Nouveau-Mexique à Las Cruces), fut récompensé du prix Ig-Nobel en 1999 pour avoir créé un piment jalapeño non épicé.
 </t>
